--- a/team_specific_matrix/Boise St._A.xlsx
+++ b/team_specific_matrix/Boise St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1927710843373494</v>
+        <v>0.2007299270072993</v>
       </c>
       <c r="C2">
-        <v>0.5582329317269076</v>
+        <v>0.5474452554744526</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01606425702811245</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1646586345381526</v>
+        <v>0.1642335766423358</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06827309236947791</v>
+        <v>0.06569343065693431</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02083333333333333</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="C3">
-        <v>0.02777777777777778</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04166666666666666</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7083333333333334</v>
+        <v>0.7161290322580646</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2013888888888889</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09467455621301775</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01775147928994083</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08875739644970414</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1952662721893491</v>
+        <v>0.1968085106382979</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01183431952662722</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1597633136094675</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="R6">
-        <v>0.09467455621301775</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S6">
-        <v>0.3372781065088757</v>
+        <v>0.351063829787234</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1205673758865248</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03546099290780142</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07092198581560284</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1134751773049645</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02127659574468085</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1914893617021277</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="R7">
-        <v>0.06382978723404255</v>
+        <v>0.06081081081081081</v>
       </c>
       <c r="S7">
-        <v>0.3829787234042553</v>
+        <v>0.3851351351351351</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08875739644970414</v>
+        <v>0.09192200557103064</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01183431952662722</v>
+        <v>0.01114206128133705</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06804733727810651</v>
+        <v>0.06685236768802229</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.121301775147929</v>
+        <v>0.1225626740947075</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02662721893491124</v>
+        <v>0.02506963788300836</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1863905325443787</v>
+        <v>0.181058495821727</v>
       </c>
       <c r="R8">
-        <v>0.1005917159763314</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="S8">
-        <v>0.3964497041420119</v>
+        <v>0.3983286908077994</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08461538461538462</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007692307692307693</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E9">
-        <v>0.01538461538461539</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="F9">
-        <v>0.07692307692307693</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1307692307692308</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01538461538461539</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1923076923076923</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="R9">
-        <v>0.1307692307692308</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="S9">
-        <v>0.3461538461538461</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1234309623430962</v>
+        <v>0.1247637051039698</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0198744769874477</v>
+        <v>0.01984877126654064</v>
       </c>
       <c r="E10">
-        <v>0.00104602510460251</v>
+        <v>0.000945179584120983</v>
       </c>
       <c r="F10">
-        <v>0.0700836820083682</v>
+        <v>0.06899810964083176</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1401673640167364</v>
+        <v>0.1351606805293006</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01882845188284519</v>
+        <v>0.01890359168241966</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2060669456066946</v>
+        <v>0.2098298676748582</v>
       </c>
       <c r="R10">
-        <v>0.100418410041841</v>
+        <v>0.09924385633270322</v>
       </c>
       <c r="S10">
-        <v>0.3200836820083682</v>
+        <v>0.3223062381852552</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004739336492890996</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="G11">
-        <v>0.1137440758293839</v>
+        <v>0.1146788990825688</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0947867298578199</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="K11">
-        <v>0.1848341232227488</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L11">
-        <v>0.5924170616113744</v>
+        <v>0.5963302752293578</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009478672985781991</v>
+        <v>0.009174311926605505</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.792</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.168</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="K12">
-        <v>0.008</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="L12">
-        <v>0.024</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008</v>
+        <v>0.01538461538461539</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6571428571428571</v>
+        <v>0.65</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3142857142857143</v>
+        <v>0.325</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02857142857142857</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02793296089385475</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1787709497206704</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="I15">
-        <v>0.06145251396648044</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.335195530726257</v>
+        <v>0.3282051282051282</v>
       </c>
       <c r="K15">
-        <v>0.05586592178770949</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00558659217877095</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.106145251396648</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2290502793296089</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02424242424242424</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1757575757575758</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="I16">
-        <v>0.06060606060606061</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="J16">
-        <v>0.4848484848484849</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="K16">
-        <v>0.07272727272727272</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02424242424242424</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03636363636363636</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1212121212121212</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008902077151335312</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2166172106824926</v>
+        <v>0.2108108108108108</v>
       </c>
       <c r="I17">
-        <v>0.06824925816023739</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="J17">
-        <v>0.4451038575667656</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="K17">
-        <v>0.0830860534124629</v>
+        <v>0.07837837837837838</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02373887240356083</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N17">
-        <v>0.002967359050445104</v>
+        <v>0.002702702702702703</v>
       </c>
       <c r="O17">
-        <v>0.05934718100890208</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09198813056379822</v>
+        <v>0.08648648648648649</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04093567251461988</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1929824561403509</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="I18">
-        <v>0.0935672514619883</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="J18">
-        <v>0.4035087719298245</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="K18">
-        <v>0.08771929824561403</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07017543859649122</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1111111111111111</v>
+        <v>0.1075268817204301</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00842358604091456</v>
+        <v>0.009922822491730982</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2069795427196149</v>
+        <v>0.1984564498346196</v>
       </c>
       <c r="I19">
-        <v>0.08543922984356198</v>
+        <v>0.08269018743109151</v>
       </c>
       <c r="J19">
-        <v>0.3766546329723225</v>
+        <v>0.3969128996692393</v>
       </c>
       <c r="K19">
-        <v>0.1251504211793021</v>
+        <v>0.1190738699007718</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02767749699157641</v>
+        <v>0.02756339581036384</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07821901323706378</v>
+        <v>0.07497243660418963</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0914560770156438</v>
+        <v>0.09040793825799338</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Boise St._A.xlsx
+++ b/team_specific_matrix/Boise St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2007299270072993</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C2">
-        <v>0.5474452554744526</v>
+        <v>0.5584415584415584</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0218978102189781</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1642335766423358</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06569343065693431</v>
+        <v>0.06493506493506493</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01935483870967742</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="C3">
-        <v>0.02580645161290323</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03870967741935484</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7161290322580646</v>
+        <v>0.7237569060773481</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.1878453038674033</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7428571428571429</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2571428571428571</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09042553191489362</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01595744680851064</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09574468085106383</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1968085106382979</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01595744680851064</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.148936170212766</v>
+        <v>0.1596244131455399</v>
       </c>
       <c r="R6">
-        <v>0.0851063829787234</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="S6">
-        <v>0.351063829787234</v>
+        <v>0.352112676056338</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1216216216216216</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03378378378378379</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08108108108108109</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1081081081081081</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02027027027027027</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1891891891891892</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="R7">
-        <v>0.06081081081081081</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="S7">
-        <v>0.3851351351351351</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09192200557103064</v>
+        <v>0.09828009828009827</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01114206128133705</v>
+        <v>0.01228501228501228</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06685236768802229</v>
+        <v>0.05896805896805897</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1225626740947075</v>
+        <v>0.1302211302211302</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02506963788300836</v>
+        <v>0.02457002457002457</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.181058495821727</v>
+        <v>0.1793611793611794</v>
       </c>
       <c r="R8">
-        <v>0.1030640668523677</v>
+        <v>0.1105651105651106</v>
       </c>
       <c r="S8">
-        <v>0.3983286908077994</v>
+        <v>0.3857493857493858</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0763888888888889</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01388888888888889</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="E9">
-        <v>0.01388888888888889</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="F9">
-        <v>0.0763888888888889</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1388888888888889</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01388888888888889</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2013888888888889</v>
+        <v>0.1925465838509317</v>
       </c>
       <c r="R9">
-        <v>0.1388888888888889</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="S9">
-        <v>0.3263888888888889</v>
+        <v>0.3354037267080746</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1247637051039698</v>
+        <v>0.1230257689110557</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01984877126654064</v>
+        <v>0.02161263507896924</v>
       </c>
       <c r="E10">
-        <v>0.000945179584120983</v>
+        <v>0.0008312551953449709</v>
       </c>
       <c r="F10">
-        <v>0.06899810964083176</v>
+        <v>0.07315045719035744</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1351606805293006</v>
+        <v>0.1363258520365752</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01890359168241966</v>
+        <v>0.01745635910224439</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2098298676748582</v>
+        <v>0.2128013300083126</v>
       </c>
       <c r="R10">
-        <v>0.09924385633270322</v>
+        <v>0.09642560266001662</v>
       </c>
       <c r="S10">
-        <v>0.3223062381852552</v>
+        <v>0.3183707398171239</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004587155963302753</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="G11">
-        <v>0.1146788990825688</v>
+        <v>0.1106719367588933</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09174311926605505</v>
+        <v>0.09881422924901186</v>
       </c>
       <c r="K11">
-        <v>0.1834862385321101</v>
+        <v>0.1778656126482213</v>
       </c>
       <c r="L11">
-        <v>0.5963302752293578</v>
+        <v>0.5968379446640316</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009174311926605505</v>
+        <v>0.01185770750988142</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7846153846153846</v>
+        <v>0.7712418300653595</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1692307692307692</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K12">
-        <v>0.007692307692307693</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="L12">
-        <v>0.02307692307692308</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01538461538461539</v>
+        <v>0.0130718954248366</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.325</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03076923076923077</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1794871794871795</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I15">
-        <v>0.06666666666666667</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="J15">
-        <v>0.3282051282051282</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="K15">
-        <v>0.05128205128205128</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01025641025641026</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1025641025641026</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2307692307692308</v>
+        <v>0.2207207207207207</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02222222222222222</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1888888888888889</v>
+        <v>0.1933962264150944</v>
       </c>
       <c r="I16">
-        <v>0.06111111111111111</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="J16">
-        <v>0.4833333333333333</v>
+        <v>0.4669811320754717</v>
       </c>
       <c r="K16">
-        <v>0.06666666666666667</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02222222222222222</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03333333333333333</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1222222222222222</v>
+        <v>0.1179245283018868</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01351351351351351</v>
+        <v>0.01182033096926714</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2108108108108108</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="I17">
-        <v>0.06756756756756757</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="J17">
-        <v>0.4459459459459459</v>
+        <v>0.442080378250591</v>
       </c>
       <c r="K17">
-        <v>0.07837837837837838</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02702702702702703</v>
+        <v>0.02600472813238771</v>
       </c>
       <c r="N17">
-        <v>0.002702702702702703</v>
+        <v>0.002364066193853428</v>
       </c>
       <c r="O17">
-        <v>0.06756756756756757</v>
+        <v>0.06855791962174941</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08648648648648649</v>
+        <v>0.08037825059101655</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03763440860215054</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1774193548387097</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="I18">
-        <v>0.1129032258064516</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="J18">
-        <v>0.4032258064516129</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="K18">
-        <v>0.08602150537634409</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07526881720430108</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1075268817204301</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009922822491730982</v>
+        <v>0.009930486593843098</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1984564498346196</v>
+        <v>0.1996027805362463</v>
       </c>
       <c r="I19">
-        <v>0.08269018743109151</v>
+        <v>0.08341608738828203</v>
       </c>
       <c r="J19">
-        <v>0.3969128996692393</v>
+        <v>0.394240317775571</v>
       </c>
       <c r="K19">
-        <v>0.1190738699007718</v>
+        <v>0.1191658391261172</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02756339581036384</v>
+        <v>0.02482621648460774</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07497243660418963</v>
+        <v>0.07845084409136048</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09040793825799338</v>
+        <v>0.0903674280039722</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Boise St._A.xlsx
+++ b/team_specific_matrix/Boise St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1948051948051948</v>
+        <v>0.1958456973293768</v>
       </c>
       <c r="C2">
-        <v>0.5584415584415584</v>
+        <v>0.5578635014836796</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01948051948051948</v>
+        <v>0.02077151335311573</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1623376623376623</v>
+        <v>0.1602373887240356</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06493506493506493</v>
+        <v>0.06528189910979229</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01657458563535912</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="C3">
-        <v>0.03867403314917127</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03314917127071823</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7237569060773481</v>
+        <v>0.7208121827411168</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1878453038674033</v>
+        <v>0.1979695431472081</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7777777777777778</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0892018779342723</v>
+        <v>0.09871244635193133</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01408450704225352</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09389671361502347</v>
+        <v>0.09012875536480687</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1971830985915493</v>
+        <v>0.1974248927038627</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01408450704225352</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1596244131455399</v>
+        <v>0.1545064377682404</v>
       </c>
       <c r="R6">
-        <v>0.07981220657276995</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="S6">
-        <v>0.352112676056338</v>
+        <v>0.351931330472103</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.119047619047619</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04761904761904762</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07738095238095238</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.119047619047619</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01785714285714286</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1845238095238095</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="R7">
-        <v>0.07738095238095238</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S7">
-        <v>0.3571428571428572</v>
+        <v>0.3626373626373626</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09828009828009827</v>
+        <v>0.1011494252873563</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01228501228501228</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05896805896805897</v>
+        <v>0.05977011494252873</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1302211302211302</v>
+        <v>0.128735632183908</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02457002457002457</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1793611793611794</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="R8">
-        <v>0.1105651105651106</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="S8">
-        <v>0.3857493857493858</v>
+        <v>0.3816091954022989</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08074534161490683</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01863354037267081</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="E9">
-        <v>0.0124223602484472</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="F9">
-        <v>0.08074534161490683</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1340782122905028</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0124223602484472</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1925465838509317</v>
+        <v>0.1787709497206704</v>
       </c>
       <c r="R9">
-        <v>0.124223602484472</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="S9">
-        <v>0.3354037267080746</v>
+        <v>0.3463687150837989</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1230257689110557</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02161263507896924</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E10">
-        <v>0.0008312551953449709</v>
+        <v>0.0007716049382716049</v>
       </c>
       <c r="F10">
-        <v>0.07315045719035744</v>
+        <v>0.07330246913580248</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1363258520365752</v>
+        <v>0.1350308641975309</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01745635910224439</v>
+        <v>0.0162037037037037</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2128013300083126</v>
+        <v>0.209104938271605</v>
       </c>
       <c r="R10">
-        <v>0.09642560266001662</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="S10">
-        <v>0.3183707398171239</v>
+        <v>0.3240740740740741</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003952569169960474</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="G11">
-        <v>0.1106719367588933</v>
+        <v>0.1083032490974729</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09881422924901186</v>
+        <v>0.1010830324909747</v>
       </c>
       <c r="K11">
-        <v>0.1778656126482213</v>
+        <v>0.1805054151624549</v>
       </c>
       <c r="L11">
-        <v>0.5968379446640316</v>
+        <v>0.592057761732852</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01185770750988142</v>
+        <v>0.01444043321299639</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7712418300653595</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1764705882352941</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="K12">
-        <v>0.0130718954248366</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="L12">
-        <v>0.0261437908496732</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0130718954248366</v>
+        <v>0.01204819277108434</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3095238095238095</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02380952380952381</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02702702702702703</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1891891891891892</v>
+        <v>0.1885245901639344</v>
       </c>
       <c r="I15">
-        <v>0.05855855855855856</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="J15">
-        <v>0.3513513513513514</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="K15">
-        <v>0.04504504504504504</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009009009009009009</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0990990990990991</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2207207207207207</v>
+        <v>0.2049180327868853</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02358490566037736</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1933962264150944</v>
+        <v>0.1822222222222222</v>
       </c>
       <c r="I16">
-        <v>0.05660377358490566</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="J16">
-        <v>0.4669811320754717</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K16">
-        <v>0.08490566037735849</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01886792452830189</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03773584905660377</v>
+        <v>0.04</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1179245283018868</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01182033096926714</v>
+        <v>0.01108647450110865</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2127659574468085</v>
+        <v>0.1995565410199557</v>
       </c>
       <c r="I17">
-        <v>0.07092198581560284</v>
+        <v>0.07760532150776053</v>
       </c>
       <c r="J17">
-        <v>0.442080378250591</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="K17">
-        <v>0.0851063829787234</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02600472813238771</v>
+        <v>0.02882483370288248</v>
       </c>
       <c r="N17">
-        <v>0.002364066193853428</v>
+        <v>0.002217294900221729</v>
       </c>
       <c r="O17">
-        <v>0.06855791962174941</v>
+        <v>0.06873614190687362</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08037825059101655</v>
+        <v>0.082039911308204</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0380952380952381</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1619047619047619</v>
+        <v>0.1629955947136564</v>
       </c>
       <c r="I18">
-        <v>0.1095238095238095</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="J18">
-        <v>0.4142857142857143</v>
+        <v>0.3964757709251101</v>
       </c>
       <c r="K18">
-        <v>0.09523809523809523</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009523809523809525</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0761904761904762</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09523809523809523</v>
+        <v>0.1145374449339207</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009930486593843098</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1996027805362463</v>
+        <v>0.2027397260273973</v>
       </c>
       <c r="I19">
-        <v>0.08341608738828203</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="J19">
-        <v>0.394240317775571</v>
+        <v>0.3963470319634703</v>
       </c>
       <c r="K19">
-        <v>0.1191658391261172</v>
+        <v>0.1159817351598174</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02482621648460774</v>
+        <v>0.02557077625570776</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07845084409136048</v>
+        <v>0.08127853881278539</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0903674280039722</v>
+        <v>0.08401826484018265</v>
       </c>
     </row>
   </sheetData>
